--- a/biology/Botanique/Arthur_Bache_Walkom/Arthur_Bache_Walkom.xlsx
+++ b/biology/Botanique/Arthur_Bache_Walkom/Arthur_Bache_Walkom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Bache Walkom, né le 8 février 1889, et mort le 2 juillet 1976, est un paléobotaniste australien et directeur de musée.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Bache Walkom est né à Grafton en Nouvelle-Galles du Sud et a déménagé avec sa famille à Sydney où il a fait ses études à Petersham Public et l'école Fort Street High School (en) et à l'Université de Sydney obtenant un doctorat en sciences en 1918. Il a travaillé pour Edgeworth David en tant que démonstrateur.
 De 1939 à 1954 il a été le directeur de l'Australian Museum. De 1947 à 1954 il a siégé United Nations Educational, Scientific and Cultural Organization's Australian committee for museums. Il a reçu la Médaille Clarke par la Royal Society of New South Wales en 1948. Un genre de fossile de conifères, Walkomiella (en), est nommé en son honneur.
